--- a/raw_data/20200818_saline/20200818_Sensor3_Test_64.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_64.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B01ECA-B19E-472E-BE0B-96BDEC910AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>57260.187417</v>
+        <v>57260.187417000001</v>
       </c>
       <c r="B2" s="1">
-        <v>15.905608</v>
+        <v>15.905608000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D2" s="1">
-        <v>-253.958000</v>
+        <v>-253.958</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>57270.235867</v>
+        <v>57270.235867000003</v>
       </c>
       <c r="G2" s="1">
-        <v>15.908399</v>
+        <v>15.908398999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.170000</v>
+        <v>1170.17</v>
       </c>
       <c r="I2" s="1">
-        <v>-212.416000</v>
+        <v>-212.416</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>57280.705421</v>
+        <v>57280.705420999999</v>
       </c>
       <c r="L2" s="1">
-        <v>15.911307</v>
+        <v>15.911307000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.000000</v>
+        <v>-148</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>57291.263295</v>
+        <v>57291.263294999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.914240</v>
+        <v>15.914239999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.460000</v>
+        <v>1203.46</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.387000</v>
+        <v>-126.387</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>57301.825583</v>
+        <v>57301.825582999998</v>
       </c>
       <c r="V2" s="1">
-        <v>15.917174</v>
+        <v>15.917173999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.660000</v>
+        <v>1210.6600000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.248000</v>
+        <v>-106.248</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>57312.464787</v>
+        <v>57312.464786999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.920129</v>
+        <v>15.920128999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1217.730000</v>
+        <v>1217.73</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.767800</v>
+        <v>-89.767799999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>57322.576199</v>
+        <v>57322.576199000003</v>
       </c>
       <c r="AF2" s="1">
         <v>15.922938</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.350000</v>
+        <v>1222.3499999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.699200</v>
+        <v>-85.699200000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>57333.020988</v>
+        <v>57333.020987999997</v>
       </c>
       <c r="AK2" s="1">
         <v>15.925839</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.561100</v>
+        <v>-89.561099999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>57343.920537</v>
+        <v>57343.920536999998</v>
       </c>
       <c r="AP2" s="1">
         <v>15.928867</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.948000</v>
+        <v>-101.94799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>57354.684220</v>
+        <v>57354.684220000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.931857</v>
+        <v>15.931857000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.790000</v>
+        <v>-121.79</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>57365.801089</v>
+        <v>57365.801089000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.934945</v>
+        <v>15.934945000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.634000</v>
+        <v>-139.63399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>57376.766606</v>
+        <v>57376.766605999997</v>
       </c>
       <c r="BE2" s="1">
         <v>15.937991</v>
       </c>
       <c r="BF2" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.758000</v>
+        <v>-222.75800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>57388.102672</v>
+        <v>57388.102672000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.941140</v>
+        <v>15.941140000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.393000</v>
+        <v>-360.39299999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>57399.532480</v>
+        <v>57399.532480000002</v>
       </c>
       <c r="BO2" s="1">
         <v>15.944315</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.150000</v>
+        <v>1485.15</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-583.099000</v>
+        <v>-583.09900000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>57410.659731</v>
@@ -691,542 +1107,542 @@
         <v>15.947405</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.490000</v>
+        <v>1619.49</v>
       </c>
       <c r="BV2" s="1">
-        <v>-833.005000</v>
+        <v>-833.005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>57421.367394</v>
+        <v>57421.367394000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.950380</v>
+        <v>15.950379999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.540000</v>
+        <v>1774.54</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1104.340000</v>
+        <v>-1104.3399999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>57432.372100</v>
+        <v>57432.372100000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.953437</v>
+        <v>15.953436999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2197.530000</v>
+        <v>2197.5300000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1760.050000</v>
+        <v>-1760.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>57260.616987</v>
+        <v>57260.616987000001</v>
       </c>
       <c r="B3" s="1">
-        <v>15.905727</v>
+        <v>15.905727000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.960000</v>
+        <v>1149.96</v>
       </c>
       <c r="D3" s="1">
-        <v>-253.727000</v>
+        <v>-253.727</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>57270.676314</v>
+        <v>57270.676313999997</v>
       </c>
       <c r="G3" s="1">
         <v>15.908521</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.680000</v>
+        <v>1169.68</v>
       </c>
       <c r="I3" s="1">
-        <v>-212.673000</v>
+        <v>-212.673</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>57281.116604</v>
+        <v>57281.116604000003</v>
       </c>
       <c r="L3" s="1">
-        <v>15.911421</v>
+        <v>15.911421000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1196.290000</v>
+        <v>1196.29</v>
       </c>
       <c r="N3" s="1">
-        <v>-147.706000</v>
+        <v>-147.70599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>57291.645679</v>
+        <v>57291.645679000001</v>
       </c>
       <c r="Q3" s="1">
         <v>15.914346</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.413000</v>
+        <v>-126.413</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>57302.195088</v>
       </c>
       <c r="V3" s="1">
-        <v>15.917276</v>
+        <v>15.917275999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.055000</v>
+        <v>-106.05500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>57312.848163</v>
+        <v>57312.848163000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.920236</v>
+        <v>15.920235999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.689000</v>
+        <v>-89.688999999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>57323.289757</v>
+        <v>57323.289756999999</v>
       </c>
       <c r="AF3" s="1">
         <v>15.923136</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.350000</v>
+        <v>1222.3499999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.616900</v>
+        <v>-85.616900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>57333.756023</v>
+        <v>57333.756023000002</v>
       </c>
       <c r="AK3" s="1">
         <v>15.926043</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.586300</v>
+        <v>-89.586299999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>57344.318826</v>
+        <v>57344.318826000002</v>
       </c>
       <c r="AP3" s="1">
         <v>15.928977</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.934000</v>
+        <v>-101.934</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>57355.070399</v>
+        <v>57355.070398999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.931964</v>
+        <v>15.931964000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.768000</v>
+        <v>-121.768</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>57366.194381</v>
+        <v>57366.194381000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.935054</v>
+        <v>15.935053999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1255.990000</v>
+        <v>1255.99</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.591000</v>
+        <v>-139.59100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>57377.453598</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.938182</v>
+        <v>15.938181999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.747000</v>
+        <v>-222.74700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>57388.570433</v>
+        <v>57388.570433000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.941270</v>
+        <v>15.941269999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.100000</v>
+        <v>1368.1</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.450000</v>
+        <v>-360.45</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>57399.647057</v>
+        <v>57399.647057000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.944346</v>
+        <v>15.944345999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.150000</v>
+        <v>1485.15</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-583.101000</v>
+        <v>-583.101</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>57411.108610</v>
+        <v>57411.108610000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.947530</v>
+        <v>15.94753</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.430000</v>
+        <v>1619.43</v>
       </c>
       <c r="BV3" s="1">
-        <v>-832.952000</v>
+        <v>-832.952</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>57421.832610</v>
+        <v>57421.832609999998</v>
       </c>
       <c r="BY3" s="1">
         <v>15.950509</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.630000</v>
+        <v>1774.63</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1104.390000</v>
+        <v>-1104.3900000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>57432.966840</v>
+        <v>57432.966840000001</v>
       </c>
       <c r="CD3" s="1">
         <v>15.953602</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.740000</v>
+        <v>2196.7399999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1757.170000</v>
+        <v>-1757.17</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>57260.895274</v>
+        <v>57260.895274000002</v>
       </c>
       <c r="B4" s="1">
         <v>15.905804</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.840000</v>
+        <v>1149.8399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-253.880000</v>
+        <v>-253.88</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57270.991803</v>
+        <v>57270.991802999997</v>
       </c>
       <c r="G4" s="1">
         <v>15.908609</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.390000</v>
+        <v>1169.3900000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.442000</v>
+        <v>-213.44200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>57281.460203</v>
+        <v>57281.460203000002</v>
       </c>
       <c r="L4" s="1">
         <v>15.911517</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N4" s="1">
-        <v>-147.964000</v>
+        <v>-147.964</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>57291.990895</v>
+        <v>57291.990895000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.914442</v>
+        <v>15.914441999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.400000</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.386000</v>
+        <v>-126.386</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>57302.536832</v>
+        <v>57302.536831999998</v>
       </c>
       <c r="V4" s="1">
-        <v>15.917371</v>
+        <v>15.917370999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.360000</v>
+        <v>1210.3599999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.018000</v>
+        <v>-106.018</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>57313.547523</v>
+        <v>57313.547523000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>15.920430</v>
+        <v>15.92043</v>
       </c>
       <c r="AB4" s="1">
-        <v>1217.630000</v>
+        <v>1217.6300000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.832600</v>
+        <v>-89.832599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>57323.633669</v>
+        <v>57323.633669000003</v>
       </c>
       <c r="AF4" s="1">
         <v>15.923232</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.680600</v>
+        <v>-85.680599999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>57334.106198</v>
+        <v>57334.106198000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.926141</v>
+        <v>15.926140999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.552100</v>
+        <v>-89.552099999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>57344.696777</v>
+        <v>57344.696776999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.929082</v>
+        <v>15.929081999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.969000</v>
+        <v>-101.96899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>57355.746650</v>
+        <v>57355.746650000001</v>
       </c>
       <c r="AU4" s="1">
         <v>15.932152</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.755000</v>
+        <v>-121.755</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>57366.870963</v>
+        <v>57366.870963000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.935242</v>
+        <v>15.935242000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1255.990000</v>
+        <v>1255.99</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.617000</v>
+        <v>-139.61699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>57377.867746</v>
+        <v>57377.867746000004</v>
       </c>
       <c r="BE4" s="1">
         <v>15.938297</v>
       </c>
       <c r="BF4" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.749000</v>
+        <v>-222.749</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>57388.972185</v>
+        <v>57388.972184999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>15.941381</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.160000</v>
+        <v>1368.16</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.297000</v>
+        <v>-360.29700000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>57400.054271</v>
+        <v>57400.054271000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.944460</v>
+        <v>15.944459999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.150000</v>
+        <v>1485.15</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-583.092000</v>
+        <v>-583.09199999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>57411.519829</v>
+        <v>57411.519828999997</v>
       </c>
       <c r="BT4" s="1">
         <v>15.947644</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.440000</v>
+        <v>1619.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-832.944000</v>
+        <v>-832.94399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>57422.277523</v>
+        <v>57422.277522999997</v>
       </c>
       <c r="BY4" s="1">
         <v>15.950633</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.240000</v>
+        <v>1774.24</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1104.530000</v>
+        <v>-1104.53</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>57433.505459</v>
@@ -1235,287 +1651,287 @@
         <v>15.953752</v>
       </c>
       <c r="CE4" s="1">
-        <v>2196.020000</v>
+        <v>2196.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1759.700000</v>
+        <v>-1759.7</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>57261.236454</v>
+        <v>57261.236453999998</v>
       </c>
       <c r="B5" s="1">
         <v>15.905899</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.010000</v>
+        <v>1150.01</v>
       </c>
       <c r="D5" s="1">
-        <v>-253.833000</v>
+        <v>-253.833</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>57271.335534</v>
+        <v>57271.335533999998</v>
       </c>
       <c r="G5" s="1">
         <v>15.908704</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.610000</v>
+        <v>1170.6099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.681000</v>
+        <v>-212.68100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>57281.794636</v>
+        <v>57281.794635999999</v>
       </c>
       <c r="L5" s="1">
-        <v>15.911610</v>
+        <v>15.91161</v>
       </c>
       <c r="M5" s="1">
-        <v>1196.020000</v>
+        <v>1196.02</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.939000</v>
+        <v>-147.93899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>57292.688799</v>
+        <v>57292.688799000003</v>
       </c>
       <c r="Q5" s="1">
         <v>15.914636</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.390000</v>
+        <v>1203.3900000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.335000</v>
+        <v>-126.33499999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>57303.224319</v>
+        <v>57303.224319000001</v>
       </c>
       <c r="V5" s="1">
         <v>15.917562</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.560000</v>
+        <v>1210.56</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.039000</v>
+        <v>-106.039</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>57313.893233</v>
+        <v>57313.893233000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.920526</v>
+        <v>15.920526000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1217.840000</v>
+        <v>1217.8399999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.819200</v>
+        <v>-89.819199999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>57323.977396</v>
+        <v>57323.977396000002</v>
       </c>
       <c r="AF5" s="1">
         <v>15.923327</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.120000</v>
+        <v>1222.1199999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.850200</v>
+        <v>-85.850200000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>57334.453931</v>
+        <v>57334.453930999996</v>
       </c>
       <c r="AK5" s="1">
         <v>15.926237</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.557600</v>
+        <v>-89.557599999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>57345.372329</v>
+        <v>57345.372328999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.929270</v>
+        <v>15.929270000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.952000</v>
+        <v>-101.952</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>57356.162297</v>
+        <v>57356.162297000003</v>
       </c>
       <c r="AU5" s="1">
         <v>15.932267</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.764000</v>
+        <v>-121.764</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>57367.269707</v>
+        <v>57367.269706999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.935353</v>
+        <v>15.935352999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.626000</v>
+        <v>-139.626</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>57378.258077</v>
+        <v>57378.258076999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.938405</v>
+        <v>15.938404999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.747000</v>
+        <v>-222.74700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>57389.348623</v>
+        <v>57389.348622999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>15.941486</v>
+        <v>15.941485999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.414000</v>
+        <v>-360.41399999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>57400.450080</v>
+        <v>57400.450080000002</v>
       </c>
       <c r="BO5" s="1">
         <v>15.944569</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.110000</v>
+        <v>1485.11</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-583.114000</v>
+        <v>-583.11400000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>57411.950356</v>
+        <v>57411.950356000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>15.947764</v>
+        <v>15.947763999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.510000</v>
+        <v>1619.51</v>
       </c>
       <c r="BV5" s="1">
-        <v>-832.968000</v>
+        <v>-832.96799999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>57422.711055</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.950753</v>
+        <v>15.950753000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1104.400000</v>
+        <v>-1104.4000000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>57434.047588</v>
+        <v>57434.047588000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.953902</v>
+        <v>15.953901999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2198.170000</v>
+        <v>2198.17</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1758.020000</v>
+        <v>-1758.02</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>57261.578699</v>
+        <v>57261.578698999998</v>
       </c>
       <c r="B6" s="1">
         <v>15.905994</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D6" s="1">
-        <v>-253.833000</v>
+        <v>-253.833</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>57271.685673</v>
@@ -1524,118 +1940,118 @@
         <v>15.908802</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.760000</v>
+        <v>1169.76</v>
       </c>
       <c r="I6" s="1">
-        <v>-212.801000</v>
+        <v>-212.80099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>57282.497997</v>
+        <v>57282.497996999999</v>
       </c>
       <c r="L6" s="1">
-        <v>15.911805</v>
+        <v>15.911804999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1196.190000</v>
+        <v>1196.19</v>
       </c>
       <c r="N6" s="1">
-        <v>-147.922000</v>
+        <v>-147.922</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>57293.036992</v>
+        <v>57293.036992000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.914732</v>
+        <v>15.914732000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.317000</v>
+        <v>-126.31699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>57303.570495</v>
       </c>
       <c r="V6" s="1">
-        <v>15.917658</v>
+        <v>15.917657999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.460000</v>
+        <v>1210.46</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.095000</v>
+        <v>-106.095</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>57314.243441</v>
+        <v>57314.243440999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.920623</v>
+        <v>15.920623000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.687400</v>
+        <v>-89.687399999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>57324.640548</v>
+        <v>57324.640548000003</v>
       </c>
       <c r="AF6" s="1">
         <v>15.923511</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.400000</v>
+        <v>1222.4000000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.695200</v>
+        <v>-85.6952</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>57335.109142</v>
+        <v>57335.109142000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.926419</v>
+        <v>15.926418999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.540000</v>
+        <v>-89.54</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>57345.778089</v>
+        <v>57345.778088999999</v>
       </c>
       <c r="AP6" s="1">
         <v>15.929383</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.928000</v>
+        <v>-101.928</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>57356.554139</v>
@@ -1644,422 +2060,422 @@
         <v>15.932376</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.771000</v>
+        <v>-121.771</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>57367.658074</v>
+        <v>57367.658073999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.935461</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.597000</v>
+        <v>-139.59700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>57378.618244</v>
+        <v>57378.618243999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.938505</v>
+        <v>15.938504999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.735000</v>
+        <v>-222.73500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>57389.766265</v>
+        <v>57389.766264999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>15.941602</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.200000</v>
+        <v>1368.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.413000</v>
+        <v>-360.41300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>57400.875683</v>
+        <v>57400.875682999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.944688</v>
+        <v>15.944687999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.180000</v>
+        <v>1485.18</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.140000</v>
+        <v>-583.14</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>57412.378368</v>
+        <v>57412.378367999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>15.947883</v>
+        <v>15.947882999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.620000</v>
+        <v>1619.62</v>
       </c>
       <c r="BV6" s="1">
-        <v>-833.003000</v>
+        <v>-833.00300000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>57423.168338</v>
+        <v>57423.168338000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.950880</v>
+        <v>15.95088</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.560000</v>
+        <v>1774.56</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1104.430000</v>
+        <v>-1104.43</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>57434.586770</v>
+        <v>57434.586770000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.954052</v>
+        <v>15.954052000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2195.950000</v>
+        <v>2195.9499999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1758.180000</v>
+        <v>-1758.18</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>57262.261789</v>
+        <v>57262.261788999996</v>
       </c>
       <c r="B7" s="1">
         <v>15.906184</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.880000</v>
+        <v>1149.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-253.950000</v>
+        <v>-253.95</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>57272.380605</v>
+        <v>57272.380604999998</v>
       </c>
       <c r="G7" s="1">
-        <v>15.908995</v>
+        <v>15.908995000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.750000</v>
+        <v>1169.75</v>
       </c>
       <c r="I7" s="1">
-        <v>-212.906000</v>
+        <v>-212.90600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>57282.849130</v>
+        <v>57282.849130000002</v>
       </c>
       <c r="L7" s="1">
-        <v>15.911903</v>
+        <v>15.911903000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1196.210000</v>
+        <v>1196.21</v>
       </c>
       <c r="N7" s="1">
-        <v>-147.855000</v>
+        <v>-147.85499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>57293.384157</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.914829</v>
+        <v>15.914828999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.286000</v>
+        <v>-126.286</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>57303.915215</v>
+        <v>57303.915215000001</v>
       </c>
       <c r="V7" s="1">
         <v>15.917754</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.580000</v>
+        <v>1210.58</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.211000</v>
+        <v>-106.211</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>57314.914001</v>
+        <v>57314.914000999997</v>
       </c>
       <c r="AA7" s="1">
         <v>15.920809</v>
       </c>
       <c r="AB7" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.840500</v>
+        <v>-89.840500000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>57325.015554</v>
+        <v>57325.015553999998</v>
       </c>
       <c r="AF7" s="1">
         <v>15.923615</v>
       </c>
       <c r="AG7" s="1">
-        <v>1222.250000</v>
+        <v>1222.25</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.814700</v>
+        <v>-85.814700000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>57335.499460</v>
+        <v>57335.499459999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.926528</v>
+        <v>15.926527999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.573400</v>
+        <v>-89.573400000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>57346.168406</v>
+        <v>57346.168405999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>15.929491</v>
+        <v>15.929491000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.944000</v>
+        <v>-101.944</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>57356.920680</v>
+        <v>57356.920680000003</v>
       </c>
       <c r="AU7" s="1">
         <v>15.932478</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.755000</v>
+        <v>-121.755</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>57368.015691</v>
+        <v>57368.015691000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.935560</v>
+        <v>15.935560000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1255.970000</v>
+        <v>1255.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.645000</v>
+        <v>-139.64500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>57379.047707</v>
+        <v>57379.047706999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.938624</v>
+        <v>15.938624000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.771000</v>
+        <v>-222.77099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>57390.123868</v>
+        <v>57390.123868000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.941701</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.130000</v>
+        <v>1368.13</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.425000</v>
+        <v>-360.42500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>57401.269965</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.944797</v>
+        <v>15.944796999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.200000</v>
+        <v>1485.2</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-583.089000</v>
+        <v>-583.08900000000006</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>57412.788560</v>
+        <v>57412.788560000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>15.947997</v>
+        <v>15.947997000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.590000</v>
+        <v>1619.59</v>
       </c>
       <c r="BV7" s="1">
-        <v>-832.919000</v>
+        <v>-832.91899999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>57423.616257</v>
+        <v>57423.616257000001</v>
       </c>
       <c r="BY7" s="1">
         <v>15.951005</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.350000</v>
+        <v>1774.35</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1104.630000</v>
+        <v>-1104.6300000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>57435.128866</v>
+        <v>57435.128865999999</v>
       </c>
       <c r="CD7" s="1">
         <v>15.954202</v>
       </c>
       <c r="CE7" s="1">
-        <v>2197.860000</v>
+        <v>2197.86</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1760.190000</v>
+        <v>-1760.19</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>57262.603429</v>
+        <v>57262.603429000003</v>
       </c>
       <c r="B8" s="1">
         <v>15.906279</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D8" s="1">
-        <v>-253.674000</v>
+        <v>-253.67400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>57272.735209</v>
+        <v>57272.735208999999</v>
       </c>
       <c r="G8" s="1">
         <v>15.909093</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.830000</v>
+        <v>1169.83</v>
       </c>
       <c r="I8" s="1">
-        <v>-212.763000</v>
+        <v>-212.76300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>57283.192401</v>
       </c>
       <c r="L8" s="1">
-        <v>15.911998</v>
+        <v>15.911998000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.930000</v>
+        <v>1195.93</v>
       </c>
       <c r="N8" s="1">
-        <v>-147.928000</v>
+        <v>-147.928</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>57294.046315</v>
@@ -2068,73 +2484,73 @@
         <v>15.915013</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.414000</v>
+        <v>-126.414</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>57304.571422</v>
+        <v>57304.571422000001</v>
       </c>
       <c r="V8" s="1">
         <v>15.917937</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.530000</v>
+        <v>1210.53</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.250000</v>
+        <v>-106.25</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>57315.289472</v>
+        <v>57315.289471999997</v>
       </c>
       <c r="AA8" s="1">
         <v>15.920914</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.690000</v>
+        <v>1217.69</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.707400</v>
+        <v>-89.707400000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>57325.361730</v>
+        <v>57325.361729999997</v>
       </c>
       <c r="AF8" s="1">
         <v>15.923712</v>
       </c>
       <c r="AG8" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.671700</v>
+        <v>-85.671700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>57335.846698</v>
+        <v>57335.846698000001</v>
       </c>
       <c r="AK8" s="1">
         <v>15.926624</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.567400</v>
+        <v>-89.567400000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>57346.528006</v>
@@ -2143,694 +2559,694 @@
         <v>15.929591</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.937000</v>
+        <v>-101.937</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>57357.340793</v>
+        <v>57357.340793000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.932595</v>
+        <v>15.932594999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.780000</v>
+        <v>-121.78</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>57368.443242</v>
+        <v>57368.443242000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.935679</v>
       </c>
       <c r="BA8" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.599000</v>
+        <v>-139.59899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>57379.340842</v>
+        <v>57379.340841999998</v>
       </c>
       <c r="BE8" s="1">
         <v>15.938706</v>
       </c>
       <c r="BF8" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.740000</v>
+        <v>-222.74</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>57390.499340</v>
+        <v>57390.499340000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.941805</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.090000</v>
+        <v>1368.09</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.389000</v>
+        <v>-360.38900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>57401.689122</v>
+        <v>57401.689122000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.944914</v>
+        <v>15.944914000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.140000</v>
+        <v>1485.14</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-583.086000</v>
+        <v>-583.08600000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>57413.221598</v>
+        <v>57413.221597999996</v>
       </c>
       <c r="BT8" s="1">
         <v>15.948117</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.660000</v>
+        <v>1619.66</v>
       </c>
       <c r="BV8" s="1">
-        <v>-832.941000</v>
+        <v>-832.94100000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>57424.070096</v>
+        <v>57424.070096000003</v>
       </c>
       <c r="BY8" s="1">
         <v>15.951131</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.550000</v>
+        <v>1774.55</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1104.420000</v>
+        <v>-1104.42</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>57435.709682</v>
+        <v>57435.709682000001</v>
       </c>
       <c r="CD8" s="1">
         <v>15.954364</v>
       </c>
       <c r="CE8" s="1">
-        <v>2195.710000</v>
+        <v>2195.71</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1758.460000</v>
+        <v>-1758.46</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>57262.944181</v>
+        <v>57262.944180999999</v>
       </c>
       <c r="B9" s="1">
         <v>15.906373</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.590000</v>
+        <v>1149.5899999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-253.842000</v>
+        <v>-253.84200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>57273.391416</v>
+        <v>57273.391415999999</v>
       </c>
       <c r="G9" s="1">
-        <v>15.909275</v>
+        <v>15.909274999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.690000</v>
+        <v>1169.69</v>
       </c>
       <c r="I9" s="1">
-        <v>-212.602000</v>
+        <v>-212.602</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>57283.848073</v>
+        <v>57283.848073000001</v>
       </c>
       <c r="L9" s="1">
-        <v>15.912180</v>
+        <v>15.912179999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1196.180000</v>
+        <v>1196.18</v>
       </c>
       <c r="N9" s="1">
-        <v>-147.950000</v>
+        <v>-147.94999999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>57294.430748</v>
+        <v>57294.430747999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.915120</v>
+        <v>15.91512</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.431000</v>
+        <v>-126.431</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>57304.945442</v>
+        <v>57304.945441999997</v>
       </c>
       <c r="V9" s="1">
-        <v>15.918040</v>
+        <v>15.91804</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.490000</v>
+        <v>1210.49</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.265000</v>
+        <v>-106.265</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>57315.642127</v>
+        <v>57315.642126999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.921012</v>
+        <v>15.921011999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1217.730000</v>
+        <v>1217.73</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.686500</v>
+        <v>-89.686499999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>57325.705472</v>
+        <v>57325.705472000001</v>
       </c>
       <c r="AF9" s="1">
         <v>15.923807</v>
       </c>
       <c r="AG9" s="1">
-        <v>1222.380000</v>
+        <v>1222.3800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.575000</v>
+        <v>-85.575000000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>57336.196372</v>
+        <v>57336.196371999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.926721</v>
+        <v>15.926721000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.555800</v>
+        <v>-89.555800000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>57346.960022</v>
+        <v>57346.960021999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.929711</v>
+        <v>15.929710999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.964000</v>
+        <v>-101.964</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>57357.648808</v>
+        <v>57357.648807999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.932680</v>
+        <v>15.93268</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.410000</v>
+        <v>1247.4100000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.772000</v>
+        <v>-121.77200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>57368.733897</v>
+        <v>57368.733896999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.935759</v>
+        <v>15.935758999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1255.970000</v>
+        <v>1255.97</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.616000</v>
+        <v>-139.61600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>57379.703914</v>
+        <v>57379.703913999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>15.938807</v>
+        <v>15.938807000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.749000</v>
+        <v>-222.749</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>57390.873819</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.941909</v>
+        <v>15.941909000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.160000</v>
+        <v>1368.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.448000</v>
+        <v>-360.44799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>57402.085886</v>
+        <v>57402.085886000001</v>
       </c>
       <c r="BO9" s="1">
         <v>15.945024</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.160000</v>
+        <v>1485.16</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.129000</v>
+        <v>-583.12900000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>57413.648373</v>
+        <v>57413.648373000004</v>
       </c>
       <c r="BT9" s="1">
         <v>15.948236</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.670000</v>
+        <v>1619.67</v>
       </c>
       <c r="BV9" s="1">
-        <v>-832.906000</v>
+        <v>-832.90599999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>57424.518943</v>
+        <v>57424.518943000003</v>
       </c>
       <c r="BY9" s="1">
         <v>15.951255</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.460000</v>
+        <v>1774.46</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1104.510000</v>
+        <v>-1104.51</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>57436.204687</v>
+        <v>57436.204686999998</v>
       </c>
       <c r="CD9" s="1">
         <v>15.954501</v>
       </c>
       <c r="CE9" s="1">
-        <v>2195.550000</v>
+        <v>2195.5500000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1758.830000</v>
+        <v>-1758.83</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>57263.601907</v>
+        <v>57263.601906999997</v>
       </c>
       <c r="B10" s="1">
         <v>15.906556</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.820000</v>
+        <v>1149.82</v>
       </c>
       <c r="D10" s="1">
-        <v>-253.877000</v>
+        <v>-253.87700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>57273.765928</v>
+        <v>57273.765928000001</v>
       </c>
       <c r="G10" s="1">
-        <v>15.909379</v>
+        <v>15.909378999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.550000</v>
+        <v>1170.55</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.370000</v>
+        <v>-212.37</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>57284.226520</v>
+        <v>57284.226519999997</v>
       </c>
       <c r="L10" s="1">
-        <v>15.912285</v>
+        <v>15.912285000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1196.000000</v>
+        <v>1196</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.026000</v>
+        <v>-148.02600000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>57294.778908</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.915216</v>
+        <v>15.915215999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.400000</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.385000</v>
+        <v>-126.38500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>57305.288142</v>
+        <v>57305.288141999998</v>
       </c>
       <c r="V10" s="1">
-        <v>15.918136</v>
+        <v>15.918136000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.520000</v>
+        <v>1210.52</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.212000</v>
+        <v>-106.212</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>57315.989822</v>
+        <v>57315.989822000003</v>
       </c>
       <c r="AA10" s="1">
         <v>15.921108</v>
       </c>
       <c r="AB10" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.792600</v>
+        <v>-89.792599999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>57326.128048</v>
+        <v>57326.128047999999</v>
       </c>
       <c r="AF10" s="1">
         <v>15.923924</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.150000</v>
+        <v>1222.1500000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.947200</v>
+        <v>-85.947199999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>57336.629844</v>
+        <v>57336.629844000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.926842</v>
+        <v>15.926842000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.573000</v>
+        <v>-89.572999999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>57347.247702</v>
+        <v>57347.247702000001</v>
       </c>
       <c r="AP10" s="1">
         <v>15.929791</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.976000</v>
+        <v>-101.976</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>57358.013901</v>
+        <v>57358.013900999998</v>
       </c>
       <c r="AU10" s="1">
         <v>15.932782</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.410000</v>
+        <v>1247.4100000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.759000</v>
+        <v>-121.759</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>57369.092504</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.935859</v>
+        <v>15.935859000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1255.950000</v>
+        <v>1255.95</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.621000</v>
+        <v>-139.62100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>57380.065498</v>
+        <v>57380.065498000004</v>
       </c>
       <c r="BE10" s="1">
         <v>15.938907</v>
       </c>
       <c r="BF10" s="1">
-        <v>1296.880000</v>
+        <v>1296.8800000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.771000</v>
+        <v>-222.77099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>57391.624307</v>
+        <v>57391.624306999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.942118</v>
+        <v>15.942118000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.100000</v>
+        <v>1368.1</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.360000</v>
+        <v>-360.36</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>57402.905318</v>
+        <v>57402.905317999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.945251</v>
+        <v>15.945251000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.120000</v>
+        <v>1485.12</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-583.089000</v>
+        <v>-583.08900000000006</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>57414.062286</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.948351</v>
+        <v>15.948351000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.730000</v>
+        <v>1619.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-832.921000</v>
+        <v>-832.92100000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>57424.941074</v>
+        <v>57424.941074000002</v>
       </c>
       <c r="BY10" s="1">
         <v>15.951373</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.560000</v>
+        <v>1774.56</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1104.540000</v>
+        <v>-1104.54</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>57437.030526</v>
+        <v>57437.030526000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>15.954731</v>
+        <v>15.954731000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2196.920000</v>
+        <v>2196.92</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1760.120000</v>
+        <v>-1760.12</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>57263.970901</v>
+        <v>57263.970901000001</v>
       </c>
       <c r="B11" s="1">
-        <v>15.906659</v>
+        <v>15.906658999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.900000</v>
+        <v>1149.9000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-253.651000</v>
+        <v>-253.65100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>57274.109623</v>
+        <v>57274.109622999997</v>
       </c>
       <c r="G11" s="1">
         <v>15.909475</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.400000</v>
+        <v>1169.4000000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.491000</v>
+        <v>-212.49100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>57284.570249</v>
+        <v>57284.570248999997</v>
       </c>
       <c r="L11" s="1">
         <v>15.912381</v>
       </c>
       <c r="M11" s="1">
-        <v>1196.050000</v>
+        <v>1196.05</v>
       </c>
       <c r="N11" s="1">
-        <v>-147.798000</v>
+        <v>-147.798</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>57295.129578</v>
@@ -2839,390 +3255,390 @@
         <v>15.915314</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.510000</v>
+        <v>1203.51</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.346000</v>
+        <v>-126.346</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>57305.848125</v>
+        <v>57305.848124999997</v>
       </c>
       <c r="V11" s="1">
         <v>15.918291</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.480000</v>
+        <v>1210.48</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.039000</v>
+        <v>-106.039</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>57316.413902</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.921226</v>
+        <v>15.921226000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1217.730000</v>
+        <v>1217.73</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.753100</v>
+        <v>-89.753100000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>57326.402864</v>
+        <v>57326.402864000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.924001</v>
+        <v>15.924001000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.771400</v>
+        <v>-85.7714</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>57336.895234</v>
+        <v>57336.895234000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.926915</v>
+        <v>15.926914999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.564200</v>
+        <v>-89.5642</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>57347.605814</v>
+        <v>57347.605814000002</v>
       </c>
       <c r="AP11" s="1">
         <v>15.929891</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.926000</v>
+        <v>-101.926</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>57358.378422</v>
+        <v>57358.378422000002</v>
       </c>
       <c r="AU11" s="1">
         <v>15.932883</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.788000</v>
+        <v>-121.788</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>57369.451609</v>
+        <v>57369.451609000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.935959</v>
       </c>
       <c r="BA11" s="1">
-        <v>1255.960000</v>
+        <v>1255.96</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.620000</v>
+        <v>-139.62</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>57380.786184</v>
+        <v>57380.786183999997</v>
       </c>
       <c r="BE11" s="1">
         <v>15.939107</v>
       </c>
       <c r="BF11" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.796000</v>
+        <v>-222.79599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>57391.998775</v>
       </c>
       <c r="BJ11" s="1">
-        <v>15.942222</v>
+        <v>15.942221999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.160000</v>
+        <v>1368.16</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.360000</v>
+        <v>-360.36</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>57403.301089</v>
+        <v>57403.301089000001</v>
       </c>
       <c r="BO11" s="1">
         <v>15.945361</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.150000</v>
+        <v>1485.15</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-583.110000</v>
+        <v>-583.11</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>57414.490829</v>
+        <v>57414.490829000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.948470</v>
+        <v>15.94847</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.720000</v>
+        <v>1619.72</v>
       </c>
       <c r="BV11" s="1">
-        <v>-832.851000</v>
+        <v>-832.851</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>57425.668709</v>
+        <v>57425.668708999998</v>
       </c>
       <c r="BY11" s="1">
         <v>15.951575</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.550000</v>
+        <v>1774.55</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1104.450000</v>
+        <v>-1104.45</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>57437.274558</v>
+        <v>57437.274557999997</v>
       </c>
       <c r="CD11" s="1">
         <v>15.954798</v>
       </c>
       <c r="CE11" s="1">
-        <v>2197.770000</v>
+        <v>2197.77</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1757.950000</v>
+        <v>-1757.95</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>57264.318130</v>
+        <v>57264.31813</v>
       </c>
       <c r="B12" s="1">
         <v>15.906755</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D12" s="1">
-        <v>-253.549000</v>
+        <v>-253.54900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>57274.451862</v>
+        <v>57274.451862000002</v>
       </c>
       <c r="G12" s="1">
-        <v>15.909570</v>
+        <v>15.90957</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.080000</v>
+        <v>1170.08</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.583000</v>
+        <v>-212.583</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>57284.917944</v>
+        <v>57284.917944000001</v>
       </c>
       <c r="L12" s="1">
-        <v>15.912477</v>
+        <v>15.912477000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1196.000000</v>
+        <v>1196</v>
       </c>
       <c r="N12" s="1">
-        <v>-147.766000</v>
+        <v>-147.76599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>57295.551177</v>
+        <v>57295.551177000001</v>
       </c>
       <c r="Q12" s="1">
         <v>15.915431</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.317000</v>
+        <v>-126.31699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>57305.975595</v>
+        <v>57305.975595000004</v>
       </c>
       <c r="V12" s="1">
         <v>15.918327</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.360000</v>
+        <v>1210.3599999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.256000</v>
+        <v>-106.256</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>57316.696126</v>
+        <v>57316.696126000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>15.921304</v>
+        <v>15.921303999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.776500</v>
+        <v>-89.776499999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>57326.744081</v>
+        <v>57326.744080999997</v>
       </c>
       <c r="AF12" s="1">
         <v>15.924096</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.310000</v>
+        <v>1222.31</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.684100</v>
+        <v>-85.684100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>57337.241410</v>
+        <v>57337.241410000002</v>
       </c>
       <c r="AK12" s="1">
         <v>15.927012</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.562400</v>
+        <v>-89.562399999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>57347.971364</v>
+        <v>57347.971363999997</v>
       </c>
       <c r="AP12" s="1">
         <v>15.929992</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.959000</v>
+        <v>-101.959</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>57359.109031</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.933086</v>
+        <v>15.933085999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.769000</v>
+        <v>-121.76900000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>57370.171800</v>
+        <v>57370.171799999996</v>
       </c>
       <c r="AZ12" s="1">
         <v>15.936159</v>
       </c>
       <c r="BA12" s="1">
-        <v>1255.960000</v>
+        <v>1255.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.609000</v>
+        <v>-139.60900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>57381.148297</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.939208</v>
+        <v>15.939208000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1296.880000</v>
+        <v>1296.8800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.777000</v>
+        <v>-222.77699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>57392.373754</v>
@@ -3231,347 +3647,347 @@
         <v>15.942326</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.473000</v>
+        <v>-360.47300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>57404.028714</v>
       </c>
       <c r="BO12" s="1">
-        <v>15.945564</v>
+        <v>15.945563999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.170000</v>
+        <v>1485.17</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-583.188000</v>
+        <v>-583.18799999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>57415.225404</v>
+        <v>57415.225403999997</v>
       </c>
       <c r="BT12" s="1">
         <v>15.948674</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.760000</v>
+        <v>1619.76</v>
       </c>
       <c r="BV12" s="1">
-        <v>-832.929000</v>
+        <v>-832.92899999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>57425.788701</v>
+        <v>57425.788700999998</v>
       </c>
       <c r="BY12" s="1">
         <v>15.951608</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.410000</v>
+        <v>1774.41</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1104.480000</v>
+        <v>-1104.48</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>57437.821151</v>
+        <v>57437.821150999996</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.954950</v>
+        <v>15.95495</v>
       </c>
       <c r="CE12" s="1">
-        <v>2195.230000</v>
+        <v>2195.23</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1758.680000</v>
+        <v>-1758.68</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>57264.657362</v>
+        <v>57264.657361999998</v>
       </c>
       <c r="B13" s="1">
-        <v>15.906849</v>
+        <v>15.906848999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.870000</v>
+        <v>1149.8699999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-253.774000</v>
+        <v>-253.774</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>57274.879442</v>
+        <v>57274.879441999998</v>
       </c>
       <c r="G13" s="1">
         <v>15.909689</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.640000</v>
+        <v>1169.6400000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-212.730000</v>
+        <v>-212.73</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>57285.333622</v>
+        <v>57285.333621999998</v>
       </c>
       <c r="L13" s="1">
-        <v>15.912593</v>
+        <v>15.912592999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1196.260000</v>
+        <v>1196.26</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.107000</v>
+        <v>-148.107</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>57295.828937</v>
+        <v>57295.828936999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.915508</v>
+        <v>15.915508000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.470000</v>
+        <v>1203.47</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.337000</v>
+        <v>-126.337</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>57306.320811</v>
+        <v>57306.320810999998</v>
       </c>
       <c r="V13" s="1">
         <v>15.918422</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.410000</v>
+        <v>1210.4100000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.020000</v>
+        <v>-106.02</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>57317.043820</v>
+        <v>57317.043819999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.921401</v>
+        <v>15.921400999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1217.700000</v>
+        <v>1217.7</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.863800</v>
+        <v>-89.863799999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>57327.091280</v>
+        <v>57327.091280000001</v>
       </c>
       <c r="AF13" s="1">
         <v>15.924192</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.661900</v>
+        <v>-85.661900000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>57337.594066</v>
+        <v>57337.594065999998</v>
       </c>
       <c r="AK13" s="1">
         <v>15.927109</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.561800</v>
+        <v>-89.561800000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>57348.690068</v>
+        <v>57348.690068000004</v>
       </c>
       <c r="AP13" s="1">
         <v>15.930192</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.945000</v>
+        <v>-101.94499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>57359.499382</v>
+        <v>57359.499382000002</v>
       </c>
       <c r="AU13" s="1">
         <v>15.933194</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.778000</v>
+        <v>-121.77800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>57370.549254</v>
+        <v>57370.549253999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.936264</v>
       </c>
       <c r="BA13" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.620000</v>
+        <v>-139.62</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>57381.508892</v>
+        <v>57381.508891999998</v>
       </c>
       <c r="BE13" s="1">
         <v>15.939308</v>
       </c>
       <c r="BF13" s="1">
-        <v>1296.850000</v>
+        <v>1296.8499999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.789000</v>
+        <v>-222.78899999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>57393.069112</v>
+        <v>57393.069111999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.942519</v>
+        <v>15.942519000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.080000</v>
+        <v>1368.08</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.378000</v>
+        <v>-360.37799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>57404.533648</v>
+        <v>57404.533647999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.945704</v>
+        <v>15.945703999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.140000</v>
+        <v>1485.14</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-583.099000</v>
+        <v>-583.09900000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>57415.364960</v>
+        <v>57415.364959999999</v>
       </c>
       <c r="BT13" s="1">
         <v>15.948712</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.780000</v>
+        <v>1619.78</v>
       </c>
       <c r="BV13" s="1">
-        <v>-832.853000</v>
+        <v>-832.85299999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>57426.239068</v>
+        <v>57426.239068000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.951733</v>
+        <v>15.951733000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.490000</v>
+        <v>1774.49</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1104.390000</v>
+        <v>-1104.3900000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>57438.348893</v>
+        <v>57438.348893000002</v>
       </c>
       <c r="CD13" s="1">
         <v>15.955097</v>
       </c>
       <c r="CE13" s="1">
-        <v>2198.330000</v>
+        <v>2198.33</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1759.030000</v>
+        <v>-1759.03</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>57265.082931</v>
+        <v>57265.082930999997</v>
       </c>
       <c r="B14" s="1">
         <v>15.906967</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.920000</v>
+        <v>1149.92</v>
       </c>
       <c r="D14" s="1">
-        <v>-253.636000</v>
+        <v>-253.636</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>57275.146298</v>
@@ -3580,58 +3996,58 @@
         <v>15.909763</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.060000</v>
+        <v>1170.06</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.850000</v>
+        <v>-212.85</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>57285.625736</v>
+        <v>57285.625736000002</v>
       </c>
       <c r="L14" s="1">
-        <v>15.912674</v>
+        <v>15.912674000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N14" s="1">
-        <v>-147.794000</v>
+        <v>-147.79400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>57296.177624</v>
+        <v>57296.177624000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.915605</v>
+        <v>15.915604999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.510000</v>
+        <v>1203.51</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.398000</v>
+        <v>-126.398</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>57306.665034</v>
+        <v>57306.665033999998</v>
       </c>
       <c r="V14" s="1">
-        <v>15.918518</v>
+        <v>15.918518000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.490000</v>
+        <v>1210.49</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.026000</v>
+        <v>-106.026</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>57317.394494</v>
@@ -3640,28 +4056,28 @@
         <v>15.921498</v>
       </c>
       <c r="AB14" s="1">
-        <v>1217.830000</v>
+        <v>1217.83</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.739100</v>
+        <v>-89.739099999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>57327.778238</v>
+        <v>57327.778237999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>15.924383</v>
+        <v>15.924383000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.310000</v>
+        <v>1222.31</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.589600</v>
+        <v>-85.589600000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>57338.277554</v>
@@ -3670,497 +4086,497 @@
         <v>15.927299</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.538700</v>
+        <v>-89.538700000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>57349.050195</v>
+        <v>57349.050195000003</v>
       </c>
       <c r="AP14" s="1">
         <v>15.930292</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.934000</v>
+        <v>-101.934</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>57359.864932</v>
+        <v>57359.864931999997</v>
       </c>
       <c r="AU14" s="1">
         <v>15.933296</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.779000</v>
+        <v>-121.779</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>57371.235717</v>
+        <v>57371.235717000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.936454</v>
+        <v>15.936453999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1255.970000</v>
+        <v>1255.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.673000</v>
+        <v>-139.673</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>57382.190359</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.939497</v>
+        <v>15.939496999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1296.880000</v>
+        <v>1296.8800000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.801000</v>
+        <v>-222.80099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>57393.502616</v>
+        <v>57393.502615999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.942640</v>
+        <v>15.942640000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.130000</v>
+        <v>1368.13</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.320000</v>
+        <v>-360.32</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>57404.953294</v>
+        <v>57404.953293999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>15.945820</v>
+        <v>15.945819999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.130000</v>
+        <v>1485.13</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-583.129000</v>
+        <v>-583.12900000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>57415.774508</v>
+        <v>57415.774508000002</v>
       </c>
       <c r="BT14" s="1">
         <v>15.948826</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.860000</v>
+        <v>1619.86</v>
       </c>
       <c r="BV14" s="1">
-        <v>-832.948000</v>
+        <v>-832.94799999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>57426.668604</v>
+        <v>57426.668603999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.951852</v>
+        <v>15.951852000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.500000</v>
+        <v>1774.5</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1104.500000</v>
+        <v>-1104.5</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>57438.889567</v>
+        <v>57438.889566999998</v>
       </c>
       <c r="CD14" s="1">
         <v>15.955247</v>
       </c>
       <c r="CE14" s="1">
-        <v>2196.640000</v>
+        <v>2196.64</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1757.750000</v>
+        <v>-1757.75</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>57265.358241</v>
+        <v>57265.358241000002</v>
       </c>
       <c r="B15" s="1">
-        <v>15.907044</v>
+        <v>15.907044000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.680000</v>
+        <v>1149.68</v>
       </c>
       <c r="D15" s="1">
-        <v>-253.771000</v>
+        <v>-253.77099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>57275.490516</v>
+        <v>57275.490515999998</v>
       </c>
       <c r="G15" s="1">
         <v>15.909858</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.190000</v>
+        <v>1170.19</v>
       </c>
       <c r="I15" s="1">
-        <v>-212.854000</v>
+        <v>-212.85400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>57285.971941</v>
+        <v>57285.971941000003</v>
       </c>
       <c r="L15" s="1">
-        <v>15.912770</v>
+        <v>15.91277</v>
       </c>
       <c r="M15" s="1">
-        <v>1196.000000</v>
+        <v>1196</v>
       </c>
       <c r="N15" s="1">
-        <v>-147.829000</v>
+        <v>-147.82900000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>57296.521354</v>
+        <v>57296.521353999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.915700</v>
+        <v>15.915699999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.444000</v>
+        <v>-126.444</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>57307.349050</v>
+        <v>57307.349049999997</v>
       </c>
       <c r="V15" s="1">
-        <v>15.918708</v>
+        <v>15.918708000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.550000</v>
+        <v>1210.55</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.365000</v>
+        <v>-106.36499999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>57318.090910</v>
+        <v>57318.090909999999</v>
       </c>
       <c r="AA15" s="1">
         <v>15.921692</v>
       </c>
       <c r="AB15" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.831000</v>
+        <v>-89.831000000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>57328.121469</v>
+        <v>57328.121468999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.924478</v>
+        <v>15.924478000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.787700</v>
+        <v>-85.787700000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>57338.638360</v>
+        <v>57338.638359999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.927400</v>
+        <v>15.9274</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.578700</v>
+        <v>-89.578699999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>57349.409763</v>
+        <v>57349.409763000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.930392</v>
+        <v>15.930391999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.948000</v>
+        <v>-101.94799999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>57360.555859</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.933488</v>
+        <v>15.933488000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.778000</v>
+        <v>-121.77800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>57371.644422</v>
+        <v>57371.644421999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.936568</v>
+        <v>15.936567999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1255.940000</v>
+        <v>1255.94</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.669000</v>
+        <v>-139.66900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>57382.616936</v>
+        <v>57382.616935999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.939616</v>
+        <v>15.939615999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.799000</v>
+        <v>-222.79900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>57393.874615</v>
+        <v>57393.874615000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>15.942743</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.190000</v>
+        <v>1368.19</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.381000</v>
+        <v>-360.38099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>57405.346121</v>
+        <v>57405.346121000002</v>
       </c>
       <c r="BO15" s="1">
         <v>15.945929</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.110000</v>
+        <v>1485.11</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-583.150000</v>
+        <v>-583.15</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>57416.203515</v>
+        <v>57416.203515000001</v>
       </c>
       <c r="BT15" s="1">
         <v>15.948945</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.930000</v>
+        <v>1619.93</v>
       </c>
       <c r="BV15" s="1">
-        <v>-832.946000</v>
+        <v>-832.94600000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>57427.107565</v>
+        <v>57427.107564999998</v>
       </c>
       <c r="BY15" s="1">
         <v>15.951974</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.430000</v>
+        <v>1774.43</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1104.640000</v>
+        <v>-1104.6400000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>57439.429685</v>
+        <v>57439.429685000003</v>
       </c>
       <c r="CD15" s="1">
         <v>15.955397</v>
       </c>
       <c r="CE15" s="1">
-        <v>2196.140000</v>
+        <v>2196.14</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1759.980000</v>
+        <v>-1759.98</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>57265.699954</v>
+        <v>57265.699954000003</v>
       </c>
       <c r="B16" s="1">
-        <v>15.907139</v>
+        <v>15.907139000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.000000</v>
+        <v>1150</v>
       </c>
       <c r="D16" s="1">
-        <v>-253.966000</v>
+        <v>-253.96600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>57275.834707</v>
+        <v>57275.834707000002</v>
       </c>
       <c r="G16" s="1">
-        <v>15.909954</v>
+        <v>15.909954000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.340000</v>
+        <v>1169.3399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-212.204000</v>
+        <v>-212.20400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>57286.318150</v>
+        <v>57286.318149999999</v>
       </c>
       <c r="L16" s="1">
-        <v>15.912866</v>
+        <v>15.912865999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1196.210000</v>
+        <v>1196.21</v>
       </c>
       <c r="N16" s="1">
-        <v>-147.857000</v>
+        <v>-147.857</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>57297.223724</v>
+        <v>57297.223724000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>15.915895</v>
+        <v>15.915895000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.351000</v>
+        <v>-126.351</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>57307.911480</v>
+        <v>57307.911480000002</v>
       </c>
       <c r="V16" s="1">
-        <v>15.918864</v>
+        <v>15.918863999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.063000</v>
+        <v>-106.063</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>57318.443035</v>
+        <v>57318.443034999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.921790</v>
+        <v>15.92179</v>
       </c>
       <c r="AB16" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.799000</v>
+        <v>-89.799000000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>57328.466688</v>
@@ -4169,572 +4585,572 @@
         <v>15.924574</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.320000</v>
+        <v>1222.32</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.671800</v>
+        <v>-85.671800000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>57339.299349</v>
+        <v>57339.299349000001</v>
       </c>
       <c r="AK16" s="1">
         <v>15.927583</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.561200</v>
+        <v>-89.561199999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>57350.084849</v>
+        <v>57350.084848999999</v>
       </c>
       <c r="AP16" s="1">
         <v>15.930579</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.982000</v>
+        <v>-101.982</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>57360.985893</v>
+        <v>57360.985892999997</v>
       </c>
       <c r="AU16" s="1">
         <v>15.933607</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.786000</v>
+        <v>-121.786</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>57372.002319</v>
+        <v>57372.002318999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.936667</v>
       </c>
       <c r="BA16" s="1">
-        <v>1255.950000</v>
+        <v>1255.95</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.630000</v>
+        <v>-139.63</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>57382.978006</v>
+        <v>57382.978005999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.939716</v>
+        <v>15.939716000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1296.880000</v>
+        <v>1296.8800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.772000</v>
+        <v>-222.77199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>57394.252103</v>
+        <v>57394.252102999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.942848</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.160000</v>
+        <v>1368.16</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.452000</v>
+        <v>-360.452</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>57405.769673</v>
+        <v>57405.769673000003</v>
       </c>
       <c r="BO16" s="1">
         <v>15.946047</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.160000</v>
+        <v>1485.16</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-583.098000</v>
+        <v>-583.09799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>57416.628587</v>
+        <v>57416.628586999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>15.949063</v>
+        <v>15.949063000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.960000</v>
+        <v>1619.96</v>
       </c>
       <c r="BV16" s="1">
-        <v>-832.916000</v>
+        <v>-832.91600000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>57427.535611</v>
+        <v>57427.535610999999</v>
       </c>
       <c r="BY16" s="1">
         <v>15.952093</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.300000</v>
+        <v>1774.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1104.380000</v>
+        <v>-1104.3800000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>57439.967867</v>
+        <v>57439.967866999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.955547</v>
+        <v>15.955546999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2197.970000</v>
+        <v>2197.9699999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1757.950000</v>
+        <v>-1757.95</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>57266.038224</v>
+        <v>57266.038224000004</v>
       </c>
       <c r="B17" s="1">
         <v>15.907233</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.930000</v>
+        <v>1149.93</v>
       </c>
       <c r="D17" s="1">
-        <v>-253.778000</v>
+        <v>-253.77799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>57276.522164</v>
+        <v>57276.522164000002</v>
       </c>
       <c r="G17" s="1">
         <v>15.910145</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.520000</v>
+        <v>1170.52</v>
       </c>
       <c r="I17" s="1">
-        <v>-212.918000</v>
+        <v>-212.91800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>57287.013575</v>
+        <v>57287.013574999997</v>
       </c>
       <c r="L17" s="1">
-        <v>15.913059</v>
+        <v>15.913059000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1196.080000</v>
+        <v>1196.08</v>
       </c>
       <c r="N17" s="1">
-        <v>-147.920000</v>
+        <v>-147.91999999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>57297.568934</v>
+        <v>57297.568934000003</v>
       </c>
       <c r="Q17" s="1">
         <v>15.915991</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.303000</v>
+        <v>-126.303</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>57308.265128</v>
+        <v>57308.265127999999</v>
       </c>
       <c r="V17" s="1">
         <v>15.918963</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.420000</v>
+        <v>1210.42</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.131000</v>
+        <v>-106.131</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>57318.788746</v>
+        <v>57318.788745999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.921886</v>
+        <v>15.921886000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1217.850000</v>
+        <v>1217.8499999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.720200</v>
+        <v>-89.720200000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>57329.128350</v>
+        <v>57329.128349999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>15.924758</v>
+        <v>15.924758000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.360000</v>
+        <v>1222.3599999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.664700</v>
+        <v>-85.664699999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>57339.684732</v>
+        <v>57339.684732000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.927690</v>
+        <v>15.92769</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.558900</v>
+        <v>-89.558899999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>57350.521297</v>
+        <v>57350.521296999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.930700</v>
+        <v>15.9307</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.961000</v>
+        <v>-101.961</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>57361.350979</v>
+        <v>57361.350979000003</v>
       </c>
       <c r="AU17" s="1">
         <v>15.933709</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.450000</v>
+        <v>1247.45</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.766000</v>
+        <v>-121.76600000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>57372.362628</v>
+        <v>57372.362628000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.936767</v>
       </c>
       <c r="BA17" s="1">
-        <v>1255.930000</v>
+        <v>1255.93</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.649000</v>
+        <v>-139.649</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>57383.340616</v>
+        <v>57383.340616000001</v>
       </c>
       <c r="BE17" s="1">
         <v>15.939817</v>
       </c>
       <c r="BF17" s="1">
-        <v>1296.860000</v>
+        <v>1296.8599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.761000</v>
+        <v>-222.761</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>57394.674662</v>
+        <v>57394.674661999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.942965</v>
+        <v>15.942964999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.470000</v>
+        <v>-360.47</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>57406.164488</v>
+        <v>57406.164488000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>15.946157</v>
+        <v>15.946156999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.170000</v>
+        <v>1485.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-583.090000</v>
+        <v>-583.09</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>57417.033320</v>
+        <v>57417.033320000002</v>
       </c>
       <c r="BT17" s="1">
         <v>15.949176</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.980000</v>
+        <v>1619.98</v>
       </c>
       <c r="BV17" s="1">
-        <v>-832.989000</v>
+        <v>-832.98900000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>57427.964686</v>
+        <v>57427.964685999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.952212</v>
+        <v>15.952211999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.340000</v>
+        <v>1774.34</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1104.630000</v>
+        <v>-1104.6300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>57440.507514</v>
+        <v>57440.507513999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.955697</v>
+        <v>15.955697000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2195.500000</v>
+        <v>2195.5</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1758.600000</v>
+        <v>-1758.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>57266.724191</v>
+        <v>57266.724191000001</v>
       </c>
       <c r="B18" s="1">
         <v>15.907423</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.640000</v>
+        <v>1149.6400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-253.732000</v>
+        <v>-253.732</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>57276.866417</v>
+        <v>57276.866416999997</v>
       </c>
       <c r="G18" s="1">
-        <v>15.910241</v>
+        <v>15.910240999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.420000</v>
+        <v>1170.42</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.015000</v>
+        <v>-213.01499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>57287.366196</v>
+        <v>57287.366196000003</v>
       </c>
       <c r="L18" s="1">
         <v>15.913157</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.160000</v>
+        <v>1196.1600000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.736000</v>
+        <v>-147.73599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>57297.918583</v>
+        <v>57297.918582999999</v>
       </c>
       <c r="Q18" s="1">
         <v>15.916088</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.329000</v>
+        <v>-126.32899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>57308.917863</v>
+        <v>57308.917863000002</v>
       </c>
       <c r="V18" s="1">
-        <v>15.919144</v>
+        <v>15.919143999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.410000</v>
+        <v>1210.4100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.058000</v>
+        <v>-106.05800000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>57319.451440</v>
+        <v>57319.451439999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.922070</v>
+        <v>15.92207</v>
       </c>
       <c r="AB18" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.800000</v>
+        <v>-89.8</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>57329.502828</v>
+        <v>57329.502827999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.924862</v>
+        <v>15.924861999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.659700</v>
+        <v>-85.659700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>57340.032929</v>
+        <v>57340.032929000001</v>
       </c>
       <c r="AK18" s="1">
         <v>15.927787</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.350000</v>
+        <v>1229.3499999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.544400</v>
+        <v>-89.544399999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>57350.883408</v>
+        <v>57350.883408000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.930801</v>
+        <v>15.930801000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.993000</v>
+        <v>-101.99299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>57361.714546</v>
+        <v>57361.714546000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.933810</v>
+        <v>15.933809999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.772000</v>
+        <v>-121.77200000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>57372.787204</v>
@@ -4743,88 +5159,88 @@
         <v>15.936885</v>
       </c>
       <c r="BA18" s="1">
-        <v>1255.930000</v>
+        <v>1255.93</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.638000</v>
+        <v>-139.63800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>57383.770649</v>
+        <v>57383.770648999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>15.939936</v>
+        <v>15.939935999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.769000</v>
+        <v>-222.76900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>57395.022359</v>
+        <v>57395.022359000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.943062</v>
+        <v>15.943061999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.100000</v>
+        <v>1368.1</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.318000</v>
+        <v>-360.31799999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>57406.587576</v>
+        <v>57406.587575999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.946274</v>
+        <v>15.946274000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.150000</v>
+        <v>1485.15</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-583.066000</v>
+        <v>-583.06600000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>57417.450984</v>
+        <v>57417.450984000003</v>
       </c>
       <c r="BT18" s="1">
         <v>15.949292</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.060000</v>
+        <v>1620.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-832.987000</v>
+        <v>-832.98699999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>57428.383274</v>
       </c>
       <c r="BY18" s="1">
-        <v>15.952329</v>
+        <v>15.952329000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.490000</v>
+        <v>1774.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1104.590000</v>
+        <v>-1104.5899999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>57441.047626</v>
@@ -4833,497 +5249,497 @@
         <v>15.955847</v>
       </c>
       <c r="CE18" s="1">
-        <v>2198.200000</v>
+        <v>2198.1999999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1759.170000</v>
+        <v>-1759.17</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>57267.068911</v>
+        <v>57267.068911000002</v>
       </c>
       <c r="B19" s="1">
-        <v>15.907519</v>
+        <v>15.907519000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.880000</v>
+        <v>1149.8800000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-253.716000</v>
+        <v>-253.71600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>57277.210611</v>
+        <v>57277.210611000002</v>
       </c>
       <c r="G19" s="1">
-        <v>15.910336</v>
+        <v>15.910335999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.700000</v>
+        <v>1170.7</v>
       </c>
       <c r="I19" s="1">
-        <v>-213.159000</v>
+        <v>-213.15899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>57287.711444</v>
       </c>
       <c r="L19" s="1">
-        <v>15.913253</v>
+        <v>15.913252999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N19" s="1">
-        <v>-147.861000</v>
+        <v>-147.86099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>57298.586197</v>
+        <v>57298.586196999997</v>
       </c>
       <c r="Q19" s="1">
         <v>15.916274</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.386000</v>
+        <v>-126.386</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>57309.293863</v>
+        <v>57309.293862999999</v>
       </c>
       <c r="V19" s="1">
         <v>15.919248</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.400000</v>
+        <v>1210.4000000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.205000</v>
+        <v>-106.205</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>57319.708365</v>
+        <v>57319.708364999999</v>
       </c>
       <c r="AA19" s="1">
         <v>15.922141</v>
       </c>
       <c r="AB19" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.807800</v>
+        <v>-89.8078</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>57329.863915</v>
+        <v>57329.863915000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.924962</v>
+        <v>15.924962000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.240000</v>
+        <v>1222.24</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.674300</v>
+        <v>-85.674300000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>57340.381086</v>
+        <v>57340.381086000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.927884</v>
+        <v>15.927884000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.573600</v>
+        <v>-89.573599999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>57351.243968</v>
+        <v>57351.243968000002</v>
       </c>
       <c r="AP19" s="1">
         <v>15.930901</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.943000</v>
+        <v>-101.943</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>57362.144547</v>
+        <v>57362.144547000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.933929</v>
+        <v>15.933928999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.794000</v>
+        <v>-121.794</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>57373.078886</v>
+        <v>57373.078886000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.936966</v>
       </c>
       <c r="BA19" s="1">
-        <v>1255.940000</v>
+        <v>1255.94</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.613000</v>
+        <v>-139.613</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>57384.060772</v>
+        <v>57384.060771999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.940017</v>
+        <v>15.940016999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.788000</v>
+        <v>-222.78800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>57395.397830</v>
+        <v>57395.397830000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.943166</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.393000</v>
+        <v>-360.39299999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>57406.996278</v>
+        <v>57406.996277999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>15.946388</v>
+        <v>15.946388000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.100000</v>
+        <v>1485.1</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-583.147000</v>
+        <v>-583.14700000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>57417.863624</v>
+        <v>57417.863623999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>15.949407</v>
+        <v>15.949407000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.070000</v>
+        <v>1620.07</v>
       </c>
       <c r="BV19" s="1">
-        <v>-832.949000</v>
+        <v>-832.94899999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>57428.813579</v>
+        <v>57428.813579000001</v>
       </c>
       <c r="BY19" s="1">
         <v>15.952448</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.580000</v>
+        <v>1774.58</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1104.430000</v>
+        <v>-1104.43</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>57441.584793</v>
+        <v>57441.584793000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.955996</v>
+        <v>15.955996000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2196.790000</v>
+        <v>2196.79</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1757.590000</v>
+        <v>-1757.59</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>57267.406191</v>
+        <v>57267.406191000002</v>
       </c>
       <c r="B20" s="1">
         <v>15.907613</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.770000</v>
+        <v>1149.77</v>
       </c>
       <c r="D20" s="1">
-        <v>-253.808000</v>
+        <v>-253.80799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>57277.876242</v>
+        <v>57277.876241999998</v>
       </c>
       <c r="G20" s="1">
-        <v>15.910521</v>
+        <v>15.910520999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1169.740000</v>
+        <v>1169.74</v>
       </c>
       <c r="I20" s="1">
-        <v>-212.752000</v>
+        <v>-212.75200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>57288.382995</v>
       </c>
       <c r="L20" s="1">
-        <v>15.913440</v>
+        <v>15.91344</v>
       </c>
       <c r="M20" s="1">
-        <v>1196.090000</v>
+        <v>1196.0899999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.035000</v>
+        <v>-148.035</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>57298.965638</v>
+        <v>57298.965638000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.916379</v>
+        <v>15.916378999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.480000</v>
+        <v>1203.48</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.362000</v>
+        <v>-126.36199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>57309.639575</v>
+        <v>57309.639575000001</v>
       </c>
       <c r="V20" s="1">
-        <v>15.919344</v>
+        <v>15.919344000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.420000</v>
+        <v>1210.42</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.090000</v>
+        <v>-106.09</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>57320.064985</v>
+        <v>57320.064984999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.922240</v>
+        <v>15.92224</v>
       </c>
       <c r="AB20" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.727700</v>
+        <v>-89.727699999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>57330.195244</v>
+        <v>57330.195244000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.925054</v>
+        <v>15.925053999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.370000</v>
+        <v>1222.3699999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.619400</v>
+        <v>-85.619399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>57340.809134</v>
+        <v>57340.809134000003</v>
       </c>
       <c r="AK20" s="1">
         <v>15.928003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.550400</v>
+        <v>-89.550399999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>57351.678991</v>
+        <v>57351.678991000001</v>
       </c>
       <c r="AP20" s="1">
         <v>15.931022</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.941000</v>
+        <v>-101.941</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>57362.443137</v>
+        <v>57362.443137000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.934012</v>
+        <v>15.934011999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.789000</v>
+        <v>-121.789</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>57373.439475</v>
+        <v>57373.439474999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.937067</v>
+        <v>15.937067000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1255.960000</v>
+        <v>1255.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.624000</v>
+        <v>-139.624</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>57384.425366</v>
+        <v>57384.425366000003</v>
       </c>
       <c r="BE20" s="1">
         <v>15.940118</v>
       </c>
       <c r="BF20" s="1">
-        <v>1296.880000</v>
+        <v>1296.8800000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.771000</v>
+        <v>-222.77099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>57395.771317</v>
+        <v>57395.771316999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.943270</v>
+        <v>15.94327</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.070000</v>
+        <v>1368.07</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.394000</v>
+        <v>-360.39400000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>57407.422377</v>
+        <v>57407.422377000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.946506</v>
+        <v>15.946505999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.180000</v>
+        <v>1485.18</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-583.113000</v>
+        <v>-583.11300000000006</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>57418.303081</v>
+        <v>57418.303080999998</v>
       </c>
       <c r="BT20" s="1">
         <v>15.949529</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.020000</v>
+        <v>1620.02</v>
       </c>
       <c r="BV20" s="1">
-        <v>-833.006000</v>
+        <v>-833.00599999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>57429.233944</v>
@@ -5332,452 +5748,452 @@
         <v>15.952565</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.440000</v>
+        <v>1774.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1104.210000</v>
+        <v>-1104.21</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>57442.128407</v>
+        <v>57442.128406999997</v>
       </c>
       <c r="CD20" s="1">
         <v>15.956147</v>
       </c>
       <c r="CE20" s="1">
-        <v>2196.100000</v>
+        <v>2196.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1760.150000</v>
+        <v>-1760.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>57268.061933</v>
+        <v>57268.061932999997</v>
       </c>
       <c r="B21" s="1">
         <v>15.907795</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D21" s="1">
-        <v>-253.899000</v>
+        <v>-253.899</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>57278.248737</v>
+        <v>57278.248737000002</v>
       </c>
       <c r="G21" s="1">
         <v>15.910625</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.410000</v>
+        <v>1170.4100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-212.796000</v>
+        <v>-212.79599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>57288.748548</v>
+        <v>57288.748548000003</v>
       </c>
       <c r="L21" s="1">
         <v>15.913541</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.910000</v>
+        <v>1195.9100000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-147.804000</v>
+        <v>-147.804</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>57299.312872</v>
+        <v>57299.312872000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.916476</v>
+        <v>15.916475999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.341000</v>
+        <v>-126.34099999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>57309.981286</v>
+        <v>57309.981286000002</v>
       </c>
       <c r="V21" s="1">
-        <v>15.919439</v>
+        <v>15.919439000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.370000</v>
+        <v>1210.3699999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.069000</v>
+        <v>-106.069</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>57320.413641</v>
+        <v>57320.413640999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.922337</v>
+        <v>15.922337000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1217.730000</v>
+        <v>1217.73</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.760200</v>
+        <v>-89.760199999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>57330.617339</v>
+        <v>57330.617338999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.925171</v>
+        <v>15.925171000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.360000</v>
+        <v>1222.3599999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.645200</v>
+        <v>-85.645200000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>57341.097310</v>
+        <v>57341.097309999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.928083</v>
+        <v>15.928083000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.549200</v>
+        <v>-89.549199999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>57351.960688</v>
+        <v>57351.960687999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.931100</v>
+        <v>15.931100000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.948000</v>
+        <v>-101.94799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>57362.820634</v>
+        <v>57362.820634000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.934117</v>
+        <v>15.934117000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.793000</v>
+        <v>-121.79300000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>57373.798082</v>
+        <v>57373.798082000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>15.937166</v>
+        <v>15.937165999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1255.940000</v>
+        <v>1255.94</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.601000</v>
+        <v>-139.601</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>57384.785924</v>
+        <v>57384.785924000003</v>
       </c>
       <c r="BE21" s="1">
         <v>15.940218</v>
       </c>
       <c r="BF21" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.818000</v>
+        <v>-222.81800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>57396.523253</v>
+        <v>57396.523252999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.943479</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.120000</v>
+        <v>1368.12</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.346000</v>
+        <v>-360.346</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>57407.801782</v>
+        <v>57407.801782000002</v>
       </c>
       <c r="BO21" s="1">
         <v>15.946612</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.130000</v>
+        <v>1485.13</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-583.089000</v>
+        <v>-583.08900000000006</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>57418.732615</v>
+        <v>57418.732615000001</v>
       </c>
       <c r="BT21" s="1">
         <v>15.949648</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.100000</v>
+        <v>1620.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-833.046000</v>
+        <v>-833.04600000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>57429.653564</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.952682</v>
+        <v>15.952681999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.380000</v>
+        <v>1774.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1104.500000</v>
+        <v>-1104.5</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>57442.991942</v>
+        <v>57442.991942000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.956387</v>
+        <v>15.956386999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.940000</v>
+        <v>2195.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1757.610000</v>
+        <v>-1757.61</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>57268.430925</v>
+        <v>57268.430925000001</v>
       </c>
       <c r="B22" s="1">
         <v>15.907897</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.900000</v>
+        <v>1149.9000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-253.823000</v>
+        <v>-253.82300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>57278.591968</v>
+        <v>57278.591968000001</v>
       </c>
       <c r="G22" s="1">
-        <v>15.910720</v>
+        <v>15.91072</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.960000</v>
+        <v>1169.96</v>
       </c>
       <c r="I22" s="1">
-        <v>-211.866000</v>
+        <v>-211.86600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>57289.092870</v>
+        <v>57289.09287</v>
       </c>
       <c r="L22" s="1">
         <v>15.913637</v>
       </c>
       <c r="M22" s="1">
-        <v>1196.130000</v>
+        <v>1196.1300000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-147.930000</v>
+        <v>-147.93</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>57299.661524</v>
+        <v>57299.661524000003</v>
       </c>
       <c r="Q22" s="1">
         <v>15.916573</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.500000</v>
+        <v>1203.5</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.376000</v>
+        <v>-126.376</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>57310.409335</v>
+        <v>57310.409334999997</v>
       </c>
       <c r="V22" s="1">
         <v>15.919558</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.510000</v>
+        <v>1210.51</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.167000</v>
+        <v>-106.167</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>57320.867480</v>
+        <v>57320.867480000001</v>
       </c>
       <c r="AA22" s="1">
         <v>15.922463</v>
       </c>
       <c r="AB22" s="1">
-        <v>1217.800000</v>
+        <v>1217.8</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.784600</v>
+        <v>-89.784599999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>57330.892620</v>
+        <v>57330.892619999999</v>
       </c>
       <c r="AF22" s="1">
         <v>15.925248</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.430000</v>
+        <v>1222.43</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.704100</v>
+        <v>-85.704099999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>57341.444510</v>
+        <v>57341.444510000001</v>
       </c>
       <c r="AK22" s="1">
         <v>15.928179</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.360000</v>
+        <v>1229.3599999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.581200</v>
+        <v>-89.581199999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>57352.321278</v>
+        <v>57352.321278000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.931200</v>
+        <v>15.9312</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.979000</v>
+        <v>-101.979</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>57363.172292</v>
+        <v>57363.172292000003</v>
       </c>
       <c r="AU22" s="1">
         <v>15.934215</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.420000</v>
+        <v>1247.42</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.794000</v>
+        <v>-121.794</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>57374.514770</v>
+        <v>57374.514770000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.937365</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.607000</v>
+        <v>-139.607</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>57385.508596</v>
@@ -5786,362 +6202,362 @@
         <v>15.940419</v>
       </c>
       <c r="BF22" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.780000</v>
+        <v>-222.78</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>57396.897733</v>
+        <v>57396.897732999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.943583</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.200000</v>
+        <v>1368.2</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.367000</v>
+        <v>-360.36700000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>57408.224404</v>
+        <v>57408.224404000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.946729</v>
+        <v>15.946728999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.100000</v>
+        <v>1485.1</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-583.101000</v>
+        <v>-583.101</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>57419.142807</v>
+        <v>57419.142806999997</v>
       </c>
       <c r="BT22" s="1">
         <v>15.949762</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.090000</v>
+        <v>1620.09</v>
       </c>
       <c r="BV22" s="1">
-        <v>-833.006000</v>
+        <v>-833.00599999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>57430.414391</v>
+        <v>57430.414390999998</v>
       </c>
       <c r="BY22" s="1">
         <v>15.952893</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.590000</v>
+        <v>1774.59</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1104.470000</v>
+        <v>-1104.47</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>57443.205718</v>
+        <v>57443.205717999997</v>
       </c>
       <c r="CD22" s="1">
         <v>15.956446</v>
       </c>
       <c r="CE22" s="1">
-        <v>2196.060000</v>
+        <v>2196.06</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1757.710000</v>
+        <v>-1757.71</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>57268.775185</v>
+        <v>57268.775184999999</v>
       </c>
       <c r="B23" s="1">
-        <v>15.907993</v>
+        <v>15.907992999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.930000</v>
+        <v>1149.93</v>
       </c>
       <c r="D23" s="1">
-        <v>-253.765000</v>
+        <v>-253.76499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>57278.935231</v>
+        <v>57278.935231000003</v>
       </c>
       <c r="G23" s="1">
-        <v>15.910815</v>
+        <v>15.910814999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.840000</v>
+        <v>1169.8399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-212.660000</v>
+        <v>-212.66</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>57289.534246</v>
+        <v>57289.534246000003</v>
       </c>
       <c r="L23" s="1">
-        <v>15.913760</v>
+        <v>15.91376</v>
       </c>
       <c r="M23" s="1">
-        <v>1196.090000</v>
+        <v>1196.0899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-147.895000</v>
+        <v>-147.89500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>57300.091910</v>
+        <v>57300.091910000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.916692</v>
+        <v>15.916691999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.510000</v>
+        <v>1203.51</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.302000</v>
+        <v>-126.30200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>57310.676710</v>
+        <v>57310.67671</v>
       </c>
       <c r="V23" s="1">
         <v>15.919632</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.410000</v>
+        <v>1210.4100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.056000</v>
+        <v>-106.056</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>57321.111513</v>
+        <v>57321.111513000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.922531</v>
+        <v>15.922530999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1217.750000</v>
+        <v>1217.75</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.845700</v>
+        <v>-89.845699999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>57331.230890</v>
+        <v>57331.230889999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.925342</v>
+        <v>15.925342000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.220000</v>
+        <v>1222.22</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.766500</v>
+        <v>-85.766499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>57341.794697</v>
+        <v>57341.794696999998</v>
       </c>
       <c r="AK23" s="1">
         <v>15.928276</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.380000</v>
+        <v>1229.3800000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.578800</v>
+        <v>-89.578800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>57352.681375</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.931300</v>
+        <v>15.9313</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.978000</v>
+        <v>-101.97799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>57363.902905</v>
+        <v>57363.902905000003</v>
       </c>
       <c r="AU23" s="1">
         <v>15.934417</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.400000</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.803000</v>
+        <v>-121.803</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>57374.874369</v>
+        <v>57374.874368999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>15.937465</v>
       </c>
       <c r="BA23" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.628000</v>
+        <v>-139.62799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>57385.872660</v>
+        <v>57385.872660000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.940520</v>
+        <v>15.940519999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1296.880000</v>
+        <v>1296.8800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.789000</v>
+        <v>-222.78899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>57397.273204</v>
+        <v>57397.273203999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.943687</v>
+        <v>15.943687000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.100000</v>
+        <v>1368.1</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.409000</v>
+        <v>-360.40899999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>57408.936165</v>
+        <v>57408.936164999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.946927</v>
+        <v>15.946927000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.200000</v>
+        <v>1485.2</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-583.139000</v>
+        <v>-583.13900000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>57419.799546</v>
+        <v>57419.799546000002</v>
       </c>
       <c r="BT23" s="1">
         <v>15.949944</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.090000</v>
+        <v>1620.09</v>
       </c>
       <c r="BV23" s="1">
-        <v>-833.120000</v>
+        <v>-833.12</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>57430.546327</v>
+        <v>57430.546326999996</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.952930</v>
+        <v>15.95293</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.680000</v>
+        <v>1774.68</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1104.390000</v>
+        <v>-1104.3900000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>57443.725555</v>
+        <v>57443.725554999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.956590</v>
+        <v>15.95659</v>
       </c>
       <c r="CE23" s="1">
-        <v>2195.670000</v>
+        <v>2195.67</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1759.300000</v>
+        <v>-1759.3</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>57269.118380</v>
+        <v>57269.11838</v>
       </c>
       <c r="B24" s="1">
-        <v>15.908088</v>
+        <v>15.908087999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.920000</v>
+        <v>1149.92</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.011000</v>
+        <v>-254.011</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>57279.352864</v>
@@ -6150,285 +6566,285 @@
         <v>15.910931</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.050000</v>
+        <v>1170.05</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.865000</v>
+        <v>-212.86500000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>57289.804530</v>
+        <v>57289.804530000001</v>
       </c>
       <c r="L24" s="1">
-        <v>15.913835</v>
+        <v>15.913835000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.960000</v>
+        <v>1195.96</v>
       </c>
       <c r="N24" s="1">
-        <v>-147.909000</v>
+        <v>-147.90899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>57300.362882</v>
+        <v>57300.362882000001</v>
       </c>
       <c r="Q24" s="1">
         <v>15.916767</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.332000</v>
+        <v>-126.33199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>57311.019938</v>
+        <v>57311.019937999998</v>
       </c>
       <c r="V24" s="1">
-        <v>15.919728</v>
+        <v>15.919727999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.500000</v>
+        <v>1210.5</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.146000</v>
+        <v>-106.146</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>57321.458726</v>
+        <v>57321.458725999997</v>
       </c>
       <c r="AA24" s="1">
         <v>15.922627</v>
       </c>
       <c r="AB24" s="1">
-        <v>1217.820000</v>
+        <v>1217.82</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.780500</v>
+        <v>-89.780500000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>57331.579082</v>
+        <v>57331.579081999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>15.925439</v>
+        <v>15.925439000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.340000</v>
+        <v>1222.3399999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.652900</v>
+        <v>-85.652900000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>57342.490604</v>
+        <v>57342.490603999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.928470</v>
+        <v>15.928470000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.360000</v>
+        <v>1229.3599999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.578900</v>
+        <v>-89.578900000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>57353.409501</v>
+        <v>57353.409501000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.931503</v>
+        <v>15.931502999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.938000</v>
+        <v>-101.938</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>57364.267918</v>
+        <v>57364.267917999998</v>
       </c>
       <c r="AU24" s="1">
         <v>15.934519</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.778000</v>
+        <v>-121.77800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>57375.232016</v>
+        <v>57375.232016000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.937564</v>
       </c>
       <c r="BA24" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.619000</v>
+        <v>-139.619</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>57386.233746</v>
+        <v>57386.233745999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.940620</v>
+        <v>15.940619999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.767000</v>
+        <v>-222.767</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>57397.962643</v>
+        <v>57397.962642999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.943879</v>
+        <v>15.943879000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.342000</v>
+        <v>-360.34199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>57409.287795</v>
+        <v>57409.287794999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>15.947024</v>
+        <v>15.947024000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.120000</v>
+        <v>1485.12</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-583.077000</v>
+        <v>-583.077</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>57419.999894</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.950000</v>
+        <v>15.95</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.220000</v>
+        <v>1620.22</v>
       </c>
       <c r="BV24" s="1">
-        <v>-833.109000</v>
+        <v>-833.10900000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>57430.971399</v>
+        <v>57430.971399000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.953048</v>
+        <v>15.953048000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.470000</v>
+        <v>1774.47</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1104.340000</v>
+        <v>-1104.3399999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>57444.242357</v>
+        <v>57444.242357000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.956734</v>
+        <v>15.956734000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2195.910000</v>
+        <v>2195.91</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1759.320000</v>
+        <v>-1759.32</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>57269.548411</v>
+        <v>57269.548411000003</v>
       </c>
       <c r="B25" s="1">
         <v>15.908208</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.920000</v>
+        <v>1149.92</v>
       </c>
       <c r="D25" s="1">
-        <v>-253.741000</v>
+        <v>-253.74100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>57279.632110</v>
+        <v>57279.632109999999</v>
       </c>
       <c r="G25" s="1">
         <v>15.911009</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.940000</v>
+        <v>1169.94</v>
       </c>
       <c r="I25" s="1">
-        <v>-212.028000</v>
+        <v>-212.02799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>57290.149248</v>
+        <v>57290.149248000002</v>
       </c>
       <c r="L25" s="1">
-        <v>15.913930</v>
+        <v>15.913930000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.920000</v>
+        <v>1195.92</v>
       </c>
       <c r="N25" s="1">
-        <v>-147.858000</v>
+        <v>-147.858</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>57300.710068</v>
@@ -6437,163 +6853,163 @@
         <v>15.916864</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.415000</v>
+        <v>-126.41500000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>57311.362676</v>
+        <v>57311.362675999997</v>
       </c>
       <c r="V25" s="1">
-        <v>15.919823</v>
+        <v>15.919822999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.297000</v>
+        <v>-106.297</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>57322.054406</v>
+        <v>57322.054406000003</v>
       </c>
       <c r="AA25" s="1">
         <v>15.922793</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.750000</v>
+        <v>1217.75</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.775900</v>
+        <v>-89.775899999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>57332.266041</v>
+        <v>57332.266041000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.925629</v>
+        <v>15.925629000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.340000</v>
+        <v>1222.3399999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.696000</v>
+        <v>-85.695999999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>57342.841242</v>
+        <v>57342.841242000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>15.928567</v>
+        <v>15.928566999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.575600</v>
+        <v>-89.575599999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>57353.788940</v>
+        <v>57353.788939999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.931608</v>
+        <v>15.931608000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.942000</v>
+        <v>-101.94199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>57364.632976</v>
+        <v>57364.632976000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.934620</v>
+        <v>15.934620000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.400000</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.814000</v>
+        <v>-121.81399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>57375.905550</v>
+        <v>57375.905550000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.937752</v>
       </c>
       <c r="BA25" s="1">
-        <v>1255.950000</v>
+        <v>1255.95</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.622000</v>
+        <v>-139.62200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>57386.944048</v>
+        <v>57386.944047999998</v>
       </c>
       <c r="BE25" s="1">
         <v>15.940818</v>
       </c>
       <c r="BF25" s="1">
-        <v>1296.890000</v>
+        <v>1296.8900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.765000</v>
+        <v>-222.76499999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>57398.401642</v>
+        <v>57398.401641999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.944000</v>
+        <v>15.944000000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.140000</v>
+        <v>1368.14</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.408000</v>
+        <v>-360.40800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>57409.740642</v>
+        <v>57409.740641999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.947150</v>
+        <v>15.947150000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.140000</v>
+        <v>1485.14</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-583.119000</v>
+        <v>-583.11900000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>57420.413557</v>
@@ -6602,302 +7018,303 @@
         <v>15.950115</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.210000</v>
+        <v>1620.21</v>
       </c>
       <c r="BV25" s="1">
-        <v>-833.252000</v>
+        <v>-833.25199999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>57431.388566</v>
+        <v>57431.388566000001</v>
       </c>
       <c r="BY25" s="1">
         <v>15.953163</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.290000</v>
+        <v>1774.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1104.510000</v>
+        <v>-1104.51</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>57444.797876</v>
+        <v>57444.797875999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.956888</v>
+        <v>15.956887999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.170000</v>
+        <v>2196.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1757.520000</v>
+        <v>-1757.52</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>57269.818733</v>
       </c>
       <c r="B26" s="1">
-        <v>15.908283</v>
+        <v>15.908283000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.730000</v>
+        <v>1149.73</v>
       </c>
       <c r="D26" s="1">
-        <v>-253.947000</v>
+        <v>-253.947</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>57279.976962</v>
+        <v>57279.976962000001</v>
       </c>
       <c r="G26" s="1">
-        <v>15.911105</v>
+        <v>15.911104999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.600000</v>
+        <v>1169.5999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.005000</v>
+        <v>-213.005</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>57290.498440</v>
+        <v>57290.498440000003</v>
       </c>
       <c r="L26" s="1">
-        <v>15.914027</v>
+        <v>15.914027000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1196.040000</v>
+        <v>1196.04</v>
       </c>
       <c r="N26" s="1">
-        <v>-147.864000</v>
+        <v>-147.864</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>57301.060242</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.916961</v>
+        <v>15.916961000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.460000</v>
+        <v>1203.46</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.353000</v>
+        <v>-126.35299999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>57312.051589</v>
+        <v>57312.051589000002</v>
       </c>
       <c r="V26" s="1">
         <v>15.920014</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.370000</v>
+        <v>1210.3699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.135000</v>
+        <v>-106.13500000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>57322.165015</v>
+        <v>57322.165014999999</v>
       </c>
       <c r="AA26" s="1">
         <v>15.922824</v>
       </c>
       <c r="AB26" s="1">
-        <v>1217.670000</v>
+        <v>1217.67</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.766800</v>
+        <v>-89.766800000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>57332.609272</v>
+        <v>57332.609272000002</v>
       </c>
       <c r="AF26" s="1">
         <v>15.925725</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.220000</v>
+        <v>1222.22</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.650100</v>
+        <v>-85.650099999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>57343.189964</v>
+        <v>57343.189963999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.928664</v>
+        <v>15.928663999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.370000</v>
+        <v>1229.3699999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.571400</v>
+        <v>-89.571399999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>57354.145068</v>
+        <v>57354.145067999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.931707</v>
+        <v>15.931706999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.939000</v>
+        <v>-101.93899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>57365.305587</v>
+        <v>57365.305587000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.934807</v>
+        <v>15.934806999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.410000</v>
+        <v>1247.4100000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.766000</v>
+        <v>-121.76600000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>57376.340078</v>
+        <v>57376.340078000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.937872</v>
       </c>
       <c r="BA26" s="1">
-        <v>1255.950000</v>
+        <v>1255.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.660000</v>
+        <v>-139.66</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>57387.333377</v>
+        <v>57387.333377000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.940926</v>
+        <v>15.940925999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1296.870000</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.798000</v>
+        <v>-222.798</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>57398.773105</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.944104</v>
+        <v>15.944103999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.070000</v>
+        <v>1368.07</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.321000</v>
+        <v>-360.32100000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>57410.161747</v>
+        <v>57410.161746999998</v>
       </c>
       <c r="BO26" s="1">
         <v>15.947267</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.140000</v>
+        <v>1485.14</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-583.137000</v>
+        <v>-583.13699999999994</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>57420.844085</v>
+        <v>57420.844084999997</v>
       </c>
       <c r="BT26" s="1">
         <v>15.950234</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.140000</v>
+        <v>1620.14</v>
       </c>
       <c r="BV26" s="1">
-        <v>-833.204000</v>
+        <v>-833.20399999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>57431.835925</v>
+        <v>57431.835924999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.953288</v>
+        <v>15.953288000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.450000</v>
+        <v>1774.45</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1104.710000</v>
+        <v>-1104.71</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>57445.325620</v>
+        <v>57445.325620000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.957035</v>
+        <v>15.957034999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2195.790000</v>
+        <v>2195.79</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1759.340000</v>
+        <v>-1759.34</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>